--- a/doc/闸机数据.xlsx
+++ b/doc/闸机数据.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>五一广场</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>入(0)/出(1)</t>
+  </si>
+  <si>
+    <t>010100101</t>
+  </si>
+  <si>
+    <t>010100102</t>
+  </si>
+  <si>
+    <t>010100201</t>
+  </si>
+  <si>
+    <t>010100202</t>
   </si>
 </sst>
 </file>
@@ -124,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -134,6 +146,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -416,7 +431,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -445,8 +460,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>10100101</v>
+      <c r="A2" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -465,8 +480,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>10100102</v>
+      <c r="A3" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -485,8 +500,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>10100201</v>
+      <c r="A4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
@@ -505,8 +520,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>10100202</v>
+      <c r="A5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
